--- a/biology/Botanique/Sainte-cécile_(côtes-du-rhône_villages)/Sainte-cécile_(côtes-du-rhône_villages).xlsx
+++ b/biology/Botanique/Sainte-cécile_(côtes-du-rhône_villages)/Sainte-cécile_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sainte-cécile[1], ou côtes-du-rhône villages Sainte-Cécile, est un vin produit sur les communes de Sainte-Cécile-les-Vignes, Suze-la-Rousse, Tulette, Sérignan-du-Comtat  et Travaillan dans le département de Vaucluse.
+Sainte-cécile, ou côtes-du-rhône villages Sainte-Cécile, est un vin produit sur les communes de Sainte-Cécile-les-Vignes, Suze-la-Rousse, Tulette, Sérignan-du-Comtat  et Travaillan dans le département de Vaucluse.
 Il s'agit d'une des vingt dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Moyen Âge
-Période contemporaine
-Cette appellation a été validée pour être officiellement en AOC en 2017[2].
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette appellation a été validée pour être officiellement en AOC en 2017.
 </t>
         </is>
       </c>
@@ -529,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orographie
-Géologie
-Climatologie
-La commune, située dans la zone d’influence du climat méditerranéen, est soumise à un rythme à quatre temps : deux saisons sèches, dont une brève en hiver, une très longue et accentuée en été ; deux saisons pluvieuses, en automne, avec des pluies abondantes sinon torrentielles, et au printemps. Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare[3].
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune, située dans la zone d’influence du climat méditerranéen, est soumise à un rythme à quatre temps : deux saisons sèches, dont une brève en hiver, une très longue et accentuée en été ; deux saisons pluvieuses, en automne, avec des pluies abondantes sinon torrentielles, et au printemps. Les étés sont chauds et secs, liés à la remontée des anticyclones subtropicaux, entrecoupés d’épisodes orageux parfois violents. Les hivers sont doux. Les précipitations sont peu fréquentes et la neige rare.
 Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble
 La saisonnalité des pluies est très marquée
@@ -593,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,17 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur les communes de Sainte-Cécile-les-Vignes, Suze-la-Rousse, Tulette, Sérignan-du-Comtat  et Travaillan.
-Encépagement
-Méthodes culturales
-Terroir et vins
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
-Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Type de vins et gastronomie
-Commercialisation
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de Sainte-Cécile-les-Vignes, Suze-la-Rousse, Tulette, Sérignan-du-Comtat  et Travaillan.
 </t>
         </is>
       </c>
@@ -634,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,12 +665,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Les principaux producteurs de l'appellation</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Caveaux de dégustation</t>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
+</t>
         </is>
       </c>
     </row>
@@ -664,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,10 +703,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sainte-cécile_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sainte-c%C3%A9cile_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>La place de Sainte-Cécile parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
